--- a/Documentação/PROJETO.xlsx
+++ b/Documentação/PROJETO.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="97">
   <si>
     <t>Cronograma do Projeto de FBD</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>Model's das entidades</t>
-  </si>
-  <si>
-    <t>Em andamento</t>
   </si>
   <si>
     <t>Não Iniciada</t>
@@ -324,7 +321,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mmm"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -398,13 +395,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -413,7 +403,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -440,11 +430,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
@@ -493,15 +478,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -526,17 +510,15 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="5">
     <cellStyle name="Bom" xfId="2" builtinId="26"/>
     <cellStyle name="Incorreto" xfId="3" builtinId="27"/>
-    <cellStyle name="Neutra" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Saída" xfId="5" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Saída" xfId="4" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto Explicativo" xfId="1" builtinId="53" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -906,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -923,16 +905,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -971,15 +953,15 @@
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -989,7 +971,7 @@
       </c>
       <c r="D9" s="11">
         <f>SUM(D11:D69)</f>
-        <v>37.849999999999994</v>
+        <v>53.199999999999989</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1000,10 +982,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>10</v>
@@ -1052,13 +1034,13 @@
         <v>1.3</v>
       </c>
       <c r="D12" s="11">
-        <v>2.2999999999999998</v>
+        <v>2.35</v>
       </c>
       <c r="E12" s="8">
         <v>43394</v>
       </c>
       <c r="F12" s="8">
-        <v>43402</v>
+        <v>43444</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>16</v>
@@ -1139,7 +1121,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="11">
         <v>2.2999999999999998</v>
@@ -1159,7 +1141,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>23</v>
@@ -1182,10 +1164,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="11">
         <v>2</v>
@@ -1205,10 +1187,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="11">
         <v>1</v>
@@ -1226,15 +1208,15 @@
         <v>16</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="11">
         <v>1</v>
@@ -1252,15 +1234,15 @@
         <v>16</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" s="11">
         <v>1</v>
@@ -1280,10 +1262,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22" s="11">
         <v>1.3</v>
@@ -1303,10 +1285,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23" s="11">
         <v>2</v>
@@ -1326,10 +1308,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" s="11">
         <v>1</v>
@@ -1349,10 +1331,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="11">
         <v>1</v>
@@ -1372,10 +1354,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" s="11">
         <v>1</v>
@@ -1395,10 +1377,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="11">
         <v>1</v>
@@ -1418,10 +1400,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="11">
         <v>1</v>
@@ -1441,10 +1423,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" s="11">
         <v>1</v>
@@ -1464,10 +1446,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C30" s="11">
         <v>1</v>
@@ -1487,10 +1469,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C31" s="11">
         <v>1</v>
@@ -1510,10 +1492,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C32" s="11">
         <v>1</v>
@@ -1531,15 +1513,15 @@
         <v>16</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="11">
         <v>1</v>
@@ -1557,21 +1539,21 @@
         <v>16</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C34" s="11">
         <v>1</v>
       </c>
       <c r="D34" s="11">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="E34" s="9">
         <v>43436</v>
@@ -1585,10 +1567,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C35" s="11">
         <v>2</v>
@@ -1608,10 +1590,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C36" s="11">
         <v>3</v>
@@ -1631,10 +1613,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" s="11">
         <v>1</v>
@@ -1654,16 +1636,16 @@
     </row>
     <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" s="11">
         <v>1</v>
       </c>
       <c r="D38" s="11">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="E38" s="9">
         <v>43436</v>
@@ -1677,10 +1659,10 @@
     </row>
     <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C39" s="11">
         <v>1</v>
@@ -1700,16 +1682,16 @@
     </row>
     <row r="40" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C40" s="11">
         <v>1</v>
       </c>
       <c r="D40" s="11">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="E40" s="9">
         <v>43436</v>
@@ -1723,16 +1705,16 @@
     </row>
     <row r="41" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C41" s="11">
         <v>1</v>
       </c>
       <c r="D41" s="11">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E41" s="9">
         <v>43436</v>
@@ -1746,10 +1728,10 @@
     </row>
     <row r="42" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C42" s="11">
         <v>1</v>
@@ -1767,15 +1749,15 @@
         <v>16</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C43" s="11">
         <v>1.3</v>
@@ -1795,403 +1777,427 @@
     </row>
     <row r="44" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C44" s="11">
         <v>2</v>
       </c>
       <c r="D44" s="11">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="E44" s="9">
         <v>43436</v>
       </c>
       <c r="F44" s="9">
-        <v>43436</v>
+        <v>43444</v>
       </c>
       <c r="G44" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C45" s="11">
         <v>2</v>
       </c>
-      <c r="D45" s="11"/>
-      <c r="G45" s="13" t="s">
-        <v>25</v>
+      <c r="D45" s="11">
+        <v>4</v>
+      </c>
+      <c r="E45" s="9">
+        <v>43443</v>
+      </c>
+      <c r="F45" s="9">
+        <v>43443</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C46" s="11">
         <v>2</v>
       </c>
-      <c r="D46" s="11"/>
-      <c r="G46" s="13" t="s">
-        <v>25</v>
+      <c r="D46" s="11">
+        <v>3</v>
+      </c>
+      <c r="E46" s="9">
+        <v>43443</v>
+      </c>
+      <c r="F46" s="9">
+        <v>43443</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C47" s="11">
         <v>2</v>
       </c>
-      <c r="D47" s="11"/>
-      <c r="G47" s="13" t="s">
-        <v>25</v>
+      <c r="D47" s="11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E47" s="9">
+        <v>43443</v>
+      </c>
+      <c r="F47" s="9">
+        <v>43443</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C48" s="11">
         <v>4</v>
       </c>
       <c r="D48" s="11"/>
       <c r="G48" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C49" s="11">
         <v>10</v>
       </c>
       <c r="D49" s="11"/>
       <c r="G49" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C50" s="11">
         <v>2</v>
       </c>
       <c r="D50" s="11"/>
       <c r="G50" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C51" s="11">
         <v>2</v>
       </c>
       <c r="D51" s="11"/>
       <c r="G51" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="C52" s="11">
         <v>2</v>
       </c>
       <c r="D52" s="11"/>
       <c r="G52" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C53" s="11">
         <v>2</v>
       </c>
       <c r="D53" s="11"/>
       <c r="G53" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C54" s="11">
         <v>2</v>
       </c>
       <c r="D54" s="11"/>
       <c r="G54" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C55" s="11">
         <v>1</v>
       </c>
       <c r="D55" s="11"/>
       <c r="G55" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C56" s="11">
         <v>1</v>
       </c>
       <c r="D56" s="11"/>
       <c r="G56" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="C57" s="11">
         <v>1</v>
       </c>
       <c r="D57" s="11"/>
-      <c r="G57" s="14" t="s">
-        <v>24</v>
+      <c r="G57" s="12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C58" s="11">
         <v>1</v>
       </c>
       <c r="D58" s="11"/>
-      <c r="G58" s="14" t="s">
-        <v>24</v>
+      <c r="G58" s="12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C59" s="11">
         <v>2</v>
       </c>
       <c r="D59" s="11"/>
       <c r="G59" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="C60" s="11">
         <v>2</v>
       </c>
       <c r="D60" s="11"/>
       <c r="G60" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C61" s="11">
         <v>2</v>
       </c>
       <c r="D61" s="11"/>
       <c r="G61" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C62" s="11">
         <v>2</v>
       </c>
       <c r="D62" s="11"/>
       <c r="G62" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="C63" s="11">
         <v>2</v>
       </c>
       <c r="D63" s="11"/>
       <c r="G63" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C64" s="11">
         <v>2</v>
       </c>
       <c r="D64" s="11"/>
       <c r="G64" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C65" s="11">
         <v>2</v>
       </c>
       <c r="D65" s="11"/>
       <c r="G65" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="C66" s="11">
         <v>2</v>
       </c>
       <c r="D66" s="11"/>
       <c r="G66" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C67" s="11">
         <v>3</v>
       </c>
       <c r="D67" s="11"/>
       <c r="G67" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C68" s="11">
         <v>3</v>
       </c>
       <c r="D68" s="11"/>
       <c r="G68" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C69" s="11">
         <v>10</v>
       </c>
       <c r="D69" s="11"/>
       <c r="G69" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
